--- a/data/pca/factorExposure/factorExposure_2012-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01678069240551706</v>
+        <v>0.01644643807522677</v>
       </c>
       <c r="C2">
-        <v>0.03498691282772188</v>
+        <v>-0.02858447597506001</v>
       </c>
       <c r="D2">
-        <v>0.006890652425027883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0003359978377775139</v>
+      </c>
+      <c r="E2">
+        <v>0.01023837666642212</v>
+      </c>
+      <c r="F2">
+        <v>-0.01394159244942495</v>
+      </c>
+      <c r="G2">
+        <v>-0.01833649105113603</v>
+      </c>
+      <c r="H2">
+        <v>0.05576852191631122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07413204943616297</v>
+        <v>0.08815739359724284</v>
       </c>
       <c r="C4">
-        <v>0.05277835120752709</v>
+        <v>-0.03812217275985005</v>
       </c>
       <c r="D4">
-        <v>-0.08053689272337233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06498423289453704</v>
+      </c>
+      <c r="E4">
+        <v>0.0148648128984608</v>
+      </c>
+      <c r="F4">
+        <v>-0.03119037380912605</v>
+      </c>
+      <c r="G4">
+        <v>-0.004551277776022608</v>
+      </c>
+      <c r="H4">
+        <v>-0.04096416298613043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1093139796404404</v>
+        <v>0.1196621950317134</v>
       </c>
       <c r="C6">
-        <v>0.05708590348228266</v>
+        <v>-0.03452239507843996</v>
       </c>
       <c r="D6">
-        <v>0.006877396976991659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01136768157598696</v>
+      </c>
+      <c r="E6">
+        <v>-0.003487172867416103</v>
+      </c>
+      <c r="F6">
+        <v>-0.05358998487045073</v>
+      </c>
+      <c r="G6">
+        <v>-0.03234368694497285</v>
+      </c>
+      <c r="H6">
+        <v>0.1113550222867431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04853330802294365</v>
+        <v>0.06381649037547814</v>
       </c>
       <c r="C7">
-        <v>0.02764482726307263</v>
+        <v>-0.02000219079231388</v>
       </c>
       <c r="D7">
-        <v>-0.04596759175755986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04602284273339387</v>
+      </c>
+      <c r="E7">
+        <v>0.036445991236872</v>
+      </c>
+      <c r="F7">
+        <v>-0.03318906194770321</v>
+      </c>
+      <c r="G7">
+        <v>0.03743501478205241</v>
+      </c>
+      <c r="H7">
+        <v>-0.003422769969640198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03718539617372571</v>
+        <v>0.04060311462455336</v>
       </c>
       <c r="C8">
-        <v>0.01108631009246007</v>
+        <v>-0.006947268131109994</v>
       </c>
       <c r="D8">
-        <v>-0.04922384512915647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02084818560052379</v>
+      </c>
+      <c r="E8">
+        <v>0.0364474494302726</v>
+      </c>
+      <c r="F8">
+        <v>-0.04714382521242542</v>
+      </c>
+      <c r="G8">
+        <v>-0.05499561573626849</v>
+      </c>
+      <c r="H8">
+        <v>-0.0006357344956615506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06719418489810393</v>
+        <v>0.07910281489086821</v>
       </c>
       <c r="C9">
-        <v>0.04229229002893569</v>
+        <v>-0.02811868459738238</v>
       </c>
       <c r="D9">
-        <v>-0.0715938250990131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06373660072883655</v>
+      </c>
+      <c r="E9">
+        <v>0.03828476956257139</v>
+      </c>
+      <c r="F9">
+        <v>-0.03177604783930042</v>
+      </c>
+      <c r="G9">
+        <v>-0.008742463182550828</v>
+      </c>
+      <c r="H9">
+        <v>-0.04819988736784363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02923633065184634</v>
+        <v>0.03441803408682031</v>
       </c>
       <c r="C10">
-        <v>0.03445346131610307</v>
+        <v>-0.04268778047760655</v>
       </c>
       <c r="D10">
-        <v>0.182499917140798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1700573055027149</v>
+      </c>
+      <c r="E10">
+        <v>0.04898760407918714</v>
+      </c>
+      <c r="F10">
+        <v>-0.04553061159553345</v>
+      </c>
+      <c r="G10">
+        <v>0.03156860594463514</v>
+      </c>
+      <c r="H10">
+        <v>0.04582431093295301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07015109504960927</v>
+        <v>0.07629975958608316</v>
       </c>
       <c r="C11">
-        <v>0.0473643146851029</v>
+        <v>-0.02775384015578072</v>
       </c>
       <c r="D11">
-        <v>-0.05590692312331733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06301952796446821</v>
+      </c>
+      <c r="E11">
+        <v>-0.002525816623988758</v>
+      </c>
+      <c r="F11">
+        <v>-0.02718120844110933</v>
+      </c>
+      <c r="G11">
+        <v>0.004253005791104558</v>
+      </c>
+      <c r="H11">
+        <v>-0.08854511138569984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05795191510915896</v>
+        <v>0.06715720304156854</v>
       </c>
       <c r="C12">
-        <v>0.05196456937259053</v>
+        <v>-0.036582588574328</v>
       </c>
       <c r="D12">
-        <v>-0.04380362389184623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04875173849626017</v>
+      </c>
+      <c r="E12">
+        <v>0.01291016382474563</v>
+      </c>
+      <c r="F12">
+        <v>-0.01916487459332503</v>
+      </c>
+      <c r="G12">
+        <v>-0.001652613760903356</v>
+      </c>
+      <c r="H12">
+        <v>-0.04655011111556508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05992796083407417</v>
+        <v>0.06548123548086238</v>
       </c>
       <c r="C13">
-        <v>0.03957696803350982</v>
+        <v>-0.02488687577434101</v>
       </c>
       <c r="D13">
-        <v>-0.0625168697083212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04114879688732966</v>
+      </c>
+      <c r="E13">
+        <v>0.0137190284952644</v>
+      </c>
+      <c r="F13">
+        <v>-0.002608151452456087</v>
+      </c>
+      <c r="G13">
+        <v>0.01011001288888731</v>
+      </c>
+      <c r="H13">
+        <v>-0.04087633712261343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03277476104140712</v>
+        <v>0.04170185369816612</v>
       </c>
       <c r="C14">
-        <v>0.03210898143669536</v>
+        <v>-0.02825319627620197</v>
       </c>
       <c r="D14">
-        <v>0.0002972023311667793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.005117988782285738</v>
+      </c>
+      <c r="E14">
+        <v>0.03208038487867628</v>
+      </c>
+      <c r="F14">
+        <v>-0.01140404527532101</v>
+      </c>
+      <c r="G14">
+        <v>-0.004807078248533664</v>
+      </c>
+      <c r="H14">
+        <v>-0.05718460743027911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0387587923880621</v>
+        <v>0.03953904118865664</v>
       </c>
       <c r="C15">
-        <v>0.01053146407093987</v>
+        <v>-0.003136897472455878</v>
       </c>
       <c r="D15">
-        <v>-0.01717596000020025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003674649313088963</v>
+      </c>
+      <c r="E15">
+        <v>0.04120770348539143</v>
+      </c>
+      <c r="F15">
+        <v>0.007293886286167701</v>
+      </c>
+      <c r="G15">
+        <v>-0.02483699485412153</v>
+      </c>
+      <c r="H15">
+        <v>-0.03502097313126728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0608812919985055</v>
+        <v>0.07035925477346584</v>
       </c>
       <c r="C16">
-        <v>0.04343309799349983</v>
+        <v>-0.02844009110750976</v>
       </c>
       <c r="D16">
-        <v>-0.04537613916700534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06237413733010497</v>
+      </c>
+      <c r="E16">
+        <v>0.006528630722734616</v>
+      </c>
+      <c r="F16">
+        <v>-0.02418323236565614</v>
+      </c>
+      <c r="G16">
+        <v>0.003605088111822804</v>
+      </c>
+      <c r="H16">
+        <v>-0.05390579298977914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06423189866974022</v>
+        <v>0.06336384496986736</v>
       </c>
       <c r="C20">
-        <v>0.03158208556861569</v>
+        <v>-0.01317221984366228</v>
       </c>
       <c r="D20">
-        <v>-0.04876595929557487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04043857604847164</v>
+      </c>
+      <c r="E20">
+        <v>0.03413214948163932</v>
+      </c>
+      <c r="F20">
+        <v>-0.01572095939973392</v>
+      </c>
+      <c r="G20">
+        <v>-0.009574993743772166</v>
+      </c>
+      <c r="H20">
+        <v>-0.0459877089923286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02355656903469814</v>
+        <v>0.02451845703956452</v>
       </c>
       <c r="C21">
-        <v>-0.003092963630091531</v>
+        <v>0.01050586753487797</v>
       </c>
       <c r="D21">
-        <v>-0.02430397562181077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02760208654399851</v>
+      </c>
+      <c r="E21">
+        <v>0.04180351986932047</v>
+      </c>
+      <c r="F21">
+        <v>0.01434924858613451</v>
+      </c>
+      <c r="G21">
+        <v>-0.009712979402899282</v>
+      </c>
+      <c r="H21">
+        <v>0.0522832724760524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07752086959050994</v>
+        <v>0.07186621528203178</v>
       </c>
       <c r="C22">
-        <v>0.06034013074187817</v>
+        <v>-0.03930902890149655</v>
       </c>
       <c r="D22">
-        <v>-0.09871853756537145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06619464911517052</v>
+      </c>
+      <c r="E22">
+        <v>0.5676775204576802</v>
+      </c>
+      <c r="F22">
+        <v>0.2342697720621577</v>
+      </c>
+      <c r="G22">
+        <v>0.0715238094317785</v>
+      </c>
+      <c r="H22">
+        <v>0.1614358662787991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07849379307303163</v>
+        <v>0.07249942963399723</v>
       </c>
       <c r="C23">
-        <v>0.05925634449305924</v>
+        <v>-0.03800809885124708</v>
       </c>
       <c r="D23">
-        <v>-0.1003142291249289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06706696444113006</v>
+      </c>
+      <c r="E23">
+        <v>0.5671157871314143</v>
+      </c>
+      <c r="F23">
+        <v>0.2328744844186335</v>
+      </c>
+      <c r="G23">
+        <v>0.07010168044859695</v>
+      </c>
+      <c r="H23">
+        <v>0.1566041361563774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07127493030320826</v>
+        <v>0.07969825427041362</v>
       </c>
       <c r="C24">
-        <v>0.05214813139359885</v>
+        <v>-0.03387768557014127</v>
       </c>
       <c r="D24">
-        <v>-0.05755261871196529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06005810521076813</v>
+      </c>
+      <c r="E24">
+        <v>0.01656821254935814</v>
+      </c>
+      <c r="F24">
+        <v>-0.03404840623315375</v>
+      </c>
+      <c r="G24">
+        <v>-0.01051328788976857</v>
+      </c>
+      <c r="H24">
+        <v>-0.05923651131310258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07063049617876396</v>
+        <v>0.07733378132521698</v>
       </c>
       <c r="C25">
-        <v>0.0571930738411359</v>
+        <v>-0.03860363175706542</v>
       </c>
       <c r="D25">
-        <v>-0.06620150381419926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05240408950194966</v>
+      </c>
+      <c r="E25">
+        <v>0.02038672465443178</v>
+      </c>
+      <c r="F25">
+        <v>-0.02508913114815625</v>
+      </c>
+      <c r="G25">
+        <v>-0.01901417944093046</v>
+      </c>
+      <c r="H25">
+        <v>-0.06066164501957474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04473669022032497</v>
+        <v>0.04716881084922855</v>
       </c>
       <c r="C26">
-        <v>0.01028983831241065</v>
+        <v>-0.002230297132312014</v>
       </c>
       <c r="D26">
-        <v>-0.01226742241999398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01861878701167887</v>
+      </c>
+      <c r="E26">
+        <v>0.0528675143346066</v>
+      </c>
+      <c r="F26">
+        <v>-0.0194977911659709</v>
+      </c>
+      <c r="G26">
+        <v>0.007382787882115114</v>
+      </c>
+      <c r="H26">
+        <v>-0.04801548431751804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05235313368716216</v>
+        <v>0.06214081224127305</v>
       </c>
       <c r="C28">
-        <v>0.07700654968894452</v>
+        <v>-0.08684773210058337</v>
       </c>
       <c r="D28">
-        <v>0.3144471756727861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3063821857508744</v>
+      </c>
+      <c r="E28">
+        <v>0.02547747704916472</v>
+      </c>
+      <c r="F28">
+        <v>-0.05485121509046472</v>
+      </c>
+      <c r="G28">
+        <v>-0.03626897610408832</v>
+      </c>
+      <c r="H28">
+        <v>0.04352937333262718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03980795660556345</v>
+        <v>0.04821306758916273</v>
       </c>
       <c r="C29">
-        <v>0.03159310061311797</v>
+        <v>-0.02635093676175992</v>
       </c>
       <c r="D29">
-        <v>-0.0008082618649704003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005674108654043782</v>
+      </c>
+      <c r="E29">
+        <v>0.05525855716927217</v>
+      </c>
+      <c r="F29">
+        <v>0.00118550574059745</v>
+      </c>
+      <c r="G29">
+        <v>0.01271565145704861</v>
+      </c>
+      <c r="H29">
+        <v>-0.07798383723890792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1274639918643382</v>
+        <v>0.1323225591072464</v>
       </c>
       <c r="C30">
-        <v>0.09593056272485211</v>
+        <v>-0.06452600350956941</v>
       </c>
       <c r="D30">
-        <v>-0.1125493996911274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06997720668542504</v>
+      </c>
+      <c r="E30">
+        <v>0.08447161511471311</v>
+      </c>
+      <c r="F30">
+        <v>0.02447985542146622</v>
+      </c>
+      <c r="G30">
+        <v>-0.07646482782422892</v>
+      </c>
+      <c r="H30">
+        <v>0.03255063887288562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04204220227374191</v>
+        <v>0.04892071873064607</v>
       </c>
       <c r="C31">
-        <v>0.02280056022291665</v>
+        <v>-0.01515871437942677</v>
       </c>
       <c r="D31">
-        <v>-0.02698714187997488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02501093228421273</v>
+      </c>
+      <c r="E31">
+        <v>0.02725684295793433</v>
+      </c>
+      <c r="F31">
+        <v>-0.008852464784832433</v>
+      </c>
+      <c r="G31">
+        <v>0.02927048297933169</v>
+      </c>
+      <c r="H31">
+        <v>-0.06204014622050252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03524842524338014</v>
+        <v>0.03860145913889127</v>
       </c>
       <c r="C32">
-        <v>0.02378260240549392</v>
+        <v>-0.01826452500848098</v>
       </c>
       <c r="D32">
-        <v>-0.02751483067490475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01182639494849812</v>
+      </c>
+      <c r="E32">
+        <v>0.07090709475030295</v>
+      </c>
+      <c r="F32">
+        <v>0.02047548790831214</v>
+      </c>
+      <c r="G32">
+        <v>-0.0189660840226415</v>
+      </c>
+      <c r="H32">
+        <v>-0.07766923833340912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08227881509890735</v>
+        <v>0.09522621974593462</v>
       </c>
       <c r="C33">
-        <v>0.04413494800239842</v>
+        <v>-0.02663488220281825</v>
       </c>
       <c r="D33">
-        <v>-0.0661630918287853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04953838742834593</v>
+      </c>
+      <c r="E33">
+        <v>0.01460136319116264</v>
+      </c>
+      <c r="F33">
+        <v>-0.001065018792121114</v>
+      </c>
+      <c r="G33">
+        <v>0.008817961652209442</v>
+      </c>
+      <c r="H33">
+        <v>-0.06394282845467537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0563299926096754</v>
+        <v>0.06239269906276499</v>
       </c>
       <c r="C34">
-        <v>0.02934954507671284</v>
+        <v>-0.01420092646255551</v>
       </c>
       <c r="D34">
-        <v>-0.0554706956389003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05405518462536945</v>
+      </c>
+      <c r="E34">
+        <v>0.008880699489208672</v>
+      </c>
+      <c r="F34">
+        <v>-0.01748583921452825</v>
+      </c>
+      <c r="G34">
+        <v>-0.0009695947309487037</v>
+      </c>
+      <c r="H34">
+        <v>-0.05921740663803455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03678261311500156</v>
+        <v>0.04025179660235348</v>
       </c>
       <c r="C35">
-        <v>0.00875361890605076</v>
+        <v>-0.003722931252106311</v>
       </c>
       <c r="D35">
-        <v>-0.006978313088011718</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008114614705462122</v>
+      </c>
+      <c r="E35">
+        <v>0.01809594815968301</v>
+      </c>
+      <c r="F35">
+        <v>0.01839208253260941</v>
+      </c>
+      <c r="G35">
+        <v>0.01216941702463671</v>
+      </c>
+      <c r="H35">
+        <v>-0.01857517559603776</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02035513997655149</v>
+        <v>0.0275709987904825</v>
       </c>
       <c r="C36">
-        <v>0.01778525255692805</v>
+        <v>-0.01418505873364988</v>
       </c>
       <c r="D36">
-        <v>-0.01709913189934335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01259871299510058</v>
+      </c>
+      <c r="E36">
+        <v>0.04346557902466565</v>
+      </c>
+      <c r="F36">
+        <v>-0.01261853942250761</v>
+      </c>
+      <c r="G36">
+        <v>0.01056857373383497</v>
+      </c>
+      <c r="H36">
+        <v>-0.04361548332006102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0393051185547696</v>
+        <v>0.04421933990209138</v>
       </c>
       <c r="C38">
-        <v>0.004030519019839054</v>
+        <v>0.0009007382289214985</v>
       </c>
       <c r="D38">
-        <v>-0.01667656159623657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01605808140744576</v>
+      </c>
+      <c r="E38">
+        <v>0.05180246031289267</v>
+      </c>
+      <c r="F38">
+        <v>0.0166962823985175</v>
+      </c>
+      <c r="G38">
+        <v>-0.006754283097006557</v>
+      </c>
+      <c r="H38">
+        <v>-0.03122032190656275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08983966344225308</v>
+        <v>0.1022579857604541</v>
       </c>
       <c r="C39">
-        <v>0.07284316415037659</v>
+        <v>-0.05109661258103609</v>
       </c>
       <c r="D39">
-        <v>-0.06663240662481094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06490662924503553</v>
+      </c>
+      <c r="E39">
+        <v>-2.989995578617357e-05</v>
+      </c>
+      <c r="F39">
+        <v>-0.003568210685430786</v>
+      </c>
+      <c r="G39">
+        <v>-0.0310294378666435</v>
+      </c>
+      <c r="H39">
+        <v>-0.06000088707577751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07459986737894918</v>
+        <v>0.07165437281886711</v>
       </c>
       <c r="C40">
-        <v>0.04148145950696216</v>
+        <v>-0.02006157286873272</v>
       </c>
       <c r="D40">
-        <v>0.003027675036233737</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0119133419698298</v>
+      </c>
+      <c r="E40">
+        <v>0.01999487115496524</v>
+      </c>
+      <c r="F40">
+        <v>0.05576964131754839</v>
+      </c>
+      <c r="G40">
+        <v>-0.0565610189687051</v>
+      </c>
+      <c r="H40">
+        <v>0.09123311206740567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04062169599801767</v>
+        <v>0.04350157770321533</v>
       </c>
       <c r="C41">
-        <v>0.00558728482170098</v>
+        <v>0.001911381152504366</v>
       </c>
       <c r="D41">
-        <v>-0.03781992738021632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03435133975229171</v>
+      </c>
+      <c r="E41">
+        <v>0.004558764283813426</v>
+      </c>
+      <c r="F41">
+        <v>0.01706098905589183</v>
+      </c>
+      <c r="G41">
+        <v>-0.00919762104152508</v>
+      </c>
+      <c r="H41">
+        <v>-0.03320162376382298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04716543078411217</v>
+        <v>0.05750210915439624</v>
       </c>
       <c r="C43">
-        <v>0.02617147430431305</v>
+        <v>-0.01758206276509127</v>
       </c>
       <c r="D43">
-        <v>-0.01802667434434913</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02545886832712676</v>
+      </c>
+      <c r="E43">
+        <v>0.01939543614189835</v>
+      </c>
+      <c r="F43">
+        <v>-0.008917815893061632</v>
+      </c>
+      <c r="G43">
+        <v>0.01996058983650746</v>
+      </c>
+      <c r="H43">
+        <v>-0.05061814264380338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09353808336751171</v>
+        <v>0.09503989406740349</v>
       </c>
       <c r="C44">
-        <v>0.09352649021588565</v>
+        <v>-0.0653450392160566</v>
       </c>
       <c r="D44">
-        <v>-0.08170766827359073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06094162478996725</v>
+      </c>
+      <c r="E44">
+        <v>0.09329288068029774</v>
+      </c>
+      <c r="F44">
+        <v>-0.03530909756248533</v>
+      </c>
+      <c r="G44">
+        <v>-0.02681059745543537</v>
+      </c>
+      <c r="H44">
+        <v>-0.03660302770120616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02458644985243292</v>
+        <v>0.03321656207785607</v>
       </c>
       <c r="C46">
-        <v>0.01442817478310127</v>
+        <v>-0.01185111367307293</v>
       </c>
       <c r="D46">
-        <v>-0.01956411875546622</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03104678211206186</v>
+      </c>
+      <c r="E46">
+        <v>0.02889408368025227</v>
+      </c>
+      <c r="F46">
+        <v>-0.01456478998432835</v>
+      </c>
+      <c r="G46">
+        <v>0.003072909684418628</v>
+      </c>
+      <c r="H46">
+        <v>-0.03554831557984548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03032106939224401</v>
+        <v>0.03807741140388338</v>
       </c>
       <c r="C47">
-        <v>0.02478581698508526</v>
+        <v>-0.02017027151536296</v>
       </c>
       <c r="D47">
-        <v>-0.01050134369300873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009244154366450151</v>
+      </c>
+      <c r="E47">
+        <v>0.0505140937527323</v>
+      </c>
+      <c r="F47">
+        <v>-0.006809902648089721</v>
+      </c>
+      <c r="G47">
+        <v>0.04299940465100296</v>
+      </c>
+      <c r="H47">
+        <v>-0.02171024614135201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03195078850102981</v>
+        <v>0.03753490795285964</v>
       </c>
       <c r="C48">
-        <v>0.01838688374569619</v>
+        <v>-0.01184901359850218</v>
       </c>
       <c r="D48">
-        <v>-0.03017082606098646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0188992232091323</v>
+      </c>
+      <c r="E48">
+        <v>0.04331892836848382</v>
+      </c>
+      <c r="F48">
+        <v>-0.0003823718715559025</v>
+      </c>
+      <c r="G48">
+        <v>-0.01178886286116687</v>
+      </c>
+      <c r="H48">
+        <v>-0.03987834496940281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1630338281800665</v>
+        <v>0.1908194585100627</v>
       </c>
       <c r="C49">
-        <v>0.0639965955410033</v>
+        <v>-0.0359659026194857</v>
       </c>
       <c r="D49">
-        <v>0.02095423469478699</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02978689429025426</v>
+      </c>
+      <c r="E49">
+        <v>-0.148741407582537</v>
+      </c>
+      <c r="F49">
+        <v>-0.07892879307639084</v>
+      </c>
+      <c r="G49">
+        <v>0.04997393905885526</v>
+      </c>
+      <c r="H49">
+        <v>0.2345882604622097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03914871183996637</v>
+        <v>0.04595705613848524</v>
       </c>
       <c r="C50">
-        <v>0.02658218271094284</v>
+        <v>-0.01919086702215778</v>
       </c>
       <c r="D50">
-        <v>-0.03533779979214336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02939515009217511</v>
+      </c>
+      <c r="E50">
+        <v>0.0508182979993527</v>
+      </c>
+      <c r="F50">
+        <v>-0.009818846078500764</v>
+      </c>
+      <c r="G50">
+        <v>0.0241970466662183</v>
+      </c>
+      <c r="H50">
+        <v>-0.05944561207926529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02514001206505789</v>
+        <v>0.02979131797791942</v>
       </c>
       <c r="C51">
-        <v>0.008772741674258653</v>
+        <v>-0.004158169075444497</v>
       </c>
       <c r="D51">
-        <v>-0.01662249410592792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01399222394290703</v>
+      </c>
+      <c r="E51">
+        <v>0.01295057054636859</v>
+      </c>
+      <c r="F51">
+        <v>-0.01918909552655143</v>
+      </c>
+      <c r="G51">
+        <v>-0.0001578425678096264</v>
+      </c>
+      <c r="H51">
+        <v>0.003551522807564871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1522208096651174</v>
+        <v>0.1631439789013278</v>
       </c>
       <c r="C53">
-        <v>0.08019141825588205</v>
+        <v>-0.05275824887425404</v>
       </c>
       <c r="D53">
-        <v>-0.02086484276928932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01705897909020081</v>
+      </c>
+      <c r="E53">
+        <v>-0.02657828735151141</v>
+      </c>
+      <c r="F53">
+        <v>-0.02190596537526153</v>
+      </c>
+      <c r="G53">
+        <v>0.02465616468887195</v>
+      </c>
+      <c r="H53">
+        <v>-0.173222439249673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.055695487116351</v>
+        <v>0.05793373796975561</v>
       </c>
       <c r="C54">
-        <v>0.02694882319004247</v>
+        <v>-0.01516723785829202</v>
       </c>
       <c r="D54">
-        <v>-0.02192624611919577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01733189892060305</v>
+      </c>
+      <c r="E54">
+        <v>0.05072957292512917</v>
+      </c>
+      <c r="F54">
+        <v>-0.003648605569367296</v>
+      </c>
+      <c r="G54">
+        <v>-0.01230864816800226</v>
+      </c>
+      <c r="H54">
+        <v>-0.04562331216013978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1000440616182519</v>
+        <v>0.1039394648587079</v>
       </c>
       <c r="C55">
-        <v>0.05505833761706123</v>
+        <v>-0.03446681443975227</v>
       </c>
       <c r="D55">
-        <v>-0.02272451185969681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02249635716622694</v>
+      </c>
+      <c r="E55">
+        <v>0.01881870421846579</v>
+      </c>
+      <c r="F55">
+        <v>-0.01603897914888496</v>
+      </c>
+      <c r="G55">
+        <v>0.01880562943006595</v>
+      </c>
+      <c r="H55">
+        <v>-0.1536015558476543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.147254507029485</v>
+        <v>0.160787035492495</v>
       </c>
       <c r="C56">
-        <v>0.09156775772237677</v>
+        <v>-0.06356211756303316</v>
       </c>
       <c r="D56">
-        <v>-0.01820412872178585</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01814403389706461</v>
+      </c>
+      <c r="E56">
+        <v>-0.02397428974514542</v>
+      </c>
+      <c r="F56">
+        <v>-0.04026933559472314</v>
+      </c>
+      <c r="G56">
+        <v>0.0370522112665885</v>
+      </c>
+      <c r="H56">
+        <v>-0.1766496581143717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1268202954013941</v>
+        <v>0.09734662744266309</v>
       </c>
       <c r="C58">
-        <v>0.008597219713634028</v>
+        <v>0.03537719419962175</v>
       </c>
       <c r="D58">
-        <v>-0.02611353965076217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03923790439988126</v>
+      </c>
+      <c r="E58">
+        <v>0.17095585401593</v>
+      </c>
+      <c r="F58">
+        <v>0.01423543386425021</v>
+      </c>
+      <c r="G58">
+        <v>0.03004909603781977</v>
+      </c>
+      <c r="H58">
+        <v>0.2253950482057089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1180341875137763</v>
+        <v>0.1365942174527918</v>
       </c>
       <c r="C59">
-        <v>0.07976847757729127</v>
+        <v>-0.08653589960806636</v>
       </c>
       <c r="D59">
-        <v>0.3493080716622472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.363022512121515</v>
+      </c>
+      <c r="E59">
+        <v>0.02334947567376177</v>
+      </c>
+      <c r="F59">
+        <v>-0.02064186520649168</v>
+      </c>
+      <c r="G59">
+        <v>0.02385887937516592</v>
+      </c>
+      <c r="H59">
+        <v>0.001833805062387482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2032671663837699</v>
+        <v>0.2321812780293418</v>
       </c>
       <c r="C60">
-        <v>0.1056959597434506</v>
+        <v>-0.06830557390740467</v>
       </c>
       <c r="D60">
-        <v>-0.003173055517024694</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03852578360128111</v>
+      </c>
+      <c r="E60">
+        <v>-0.09258661396979026</v>
+      </c>
+      <c r="F60">
+        <v>-0.0706651143415442</v>
+      </c>
+      <c r="G60">
+        <v>-0.02852109849620501</v>
+      </c>
+      <c r="H60">
+        <v>0.1586853427801067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07848596818748074</v>
+        <v>0.08813553904780104</v>
       </c>
       <c r="C61">
-        <v>0.05210343129946111</v>
+        <v>-0.03675762817024003</v>
       </c>
       <c r="D61">
-        <v>-0.05161043656827356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04490044642597053</v>
+      </c>
+      <c r="E61">
+        <v>-0.002612914431422228</v>
+      </c>
+      <c r="F61">
+        <v>-0.003140990241217398</v>
+      </c>
+      <c r="G61">
+        <v>0.003442108384838206</v>
+      </c>
+      <c r="H61">
+        <v>-0.0701707044058635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.127711155672108</v>
+        <v>0.1398021963044203</v>
       </c>
       <c r="C62">
-        <v>0.06625644512116935</v>
+        <v>-0.04191398261514509</v>
       </c>
       <c r="D62">
-        <v>-0.02996875656162424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.02852240363002997</v>
+      </c>
+      <c r="E62">
+        <v>-0.06131763414648633</v>
+      </c>
+      <c r="F62">
+        <v>-0.02106436405643576</v>
+      </c>
+      <c r="G62">
+        <v>-0.007159062136590412</v>
+      </c>
+      <c r="H62">
+        <v>-0.1926308952956634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05066820349051825</v>
+        <v>0.0502391064941938</v>
       </c>
       <c r="C63">
-        <v>0.02481318707530077</v>
+        <v>-0.01247703477203791</v>
       </c>
       <c r="D63">
-        <v>-0.0214574982273889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02002426113216567</v>
+      </c>
+      <c r="E63">
+        <v>0.05305109192981731</v>
+      </c>
+      <c r="F63">
+        <v>0.01632336048382294</v>
+      </c>
+      <c r="G63">
+        <v>-0.01944008134110989</v>
+      </c>
+      <c r="H63">
+        <v>-0.05451459692326573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1047196534276286</v>
+        <v>0.1089300963978298</v>
       </c>
       <c r="C64">
-        <v>0.0239659550871542</v>
+        <v>-0.003801460176940856</v>
       </c>
       <c r="D64">
-        <v>-0.06048863010698642</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0407573854796148</v>
+      </c>
+      <c r="E64">
+        <v>0.04685177130472333</v>
+      </c>
+      <c r="F64">
+        <v>-0.04109105592535988</v>
+      </c>
+      <c r="G64">
+        <v>-0.04681860041314435</v>
+      </c>
+      <c r="H64">
+        <v>-0.06201223384649448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1218146769090969</v>
+        <v>0.1261840078174855</v>
       </c>
       <c r="C65">
-        <v>0.06206911559120372</v>
+        <v>-0.03911034136354719</v>
       </c>
       <c r="D65">
-        <v>0.02154816101027429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.003842978453405595</v>
+      </c>
+      <c r="E65">
+        <v>0.01523316887651777</v>
+      </c>
+      <c r="F65">
+        <v>-0.05239157390719659</v>
+      </c>
+      <c r="G65">
+        <v>-0.058818146169696</v>
+      </c>
+      <c r="H65">
+        <v>0.1387921342410212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1408950555041961</v>
+        <v>0.1537235084412722</v>
       </c>
       <c r="C66">
-        <v>0.07785123140039721</v>
+        <v>-0.04740177731053979</v>
       </c>
       <c r="D66">
-        <v>-0.1227441244475139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1017375495394071</v>
+      </c>
+      <c r="E66">
+        <v>-0.02947292368186474</v>
+      </c>
+      <c r="F66">
+        <v>-0.01645169472893392</v>
+      </c>
+      <c r="G66">
+        <v>-0.04117674772917293</v>
+      </c>
+      <c r="H66">
+        <v>-0.136658121327237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07142770778936909</v>
+        <v>0.0835447484788108</v>
       </c>
       <c r="C67">
-        <v>0.01425812171607164</v>
+        <v>-0.005232286454030453</v>
       </c>
       <c r="D67">
-        <v>-0.0222671081286655</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02977607938637113</v>
+      </c>
+      <c r="E67">
+        <v>0.02213933600268977</v>
+      </c>
+      <c r="F67">
+        <v>-0.01509350328515906</v>
+      </c>
+      <c r="G67">
+        <v>0.01166893884202388</v>
+      </c>
+      <c r="H67">
+        <v>-0.03085981240438853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05914814675897773</v>
+        <v>0.05789167125942378</v>
       </c>
       <c r="C68">
-        <v>0.05283009760161219</v>
+        <v>-0.0592041267153906</v>
       </c>
       <c r="D68">
-        <v>0.2536240138454046</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2698144443500349</v>
+      </c>
+      <c r="E68">
+        <v>0.03568262441171838</v>
+      </c>
+      <c r="F68">
+        <v>-0.01700896251554833</v>
+      </c>
+      <c r="G68">
+        <v>0.0127527046936568</v>
+      </c>
+      <c r="H68">
+        <v>-0.001997071047779987</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05264642775918732</v>
+        <v>0.05317487336691341</v>
       </c>
       <c r="C69">
-        <v>0.01819896033430762</v>
+        <v>-0.005635728947224654</v>
       </c>
       <c r="D69">
-        <v>-0.0174973770111976</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01538475340890292</v>
+      </c>
+      <c r="E69">
+        <v>0.02388590228443976</v>
+      </c>
+      <c r="F69">
+        <v>0.009899208525660489</v>
+      </c>
+      <c r="G69">
+        <v>0.02167928530910889</v>
+      </c>
+      <c r="H69">
+        <v>-0.0491823352037872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005452447346068446</v>
+        <v>0.02676668867221432</v>
       </c>
       <c r="C70">
-        <v>-0.005668674145949669</v>
+        <v>8.707332413470458e-05</v>
       </c>
       <c r="D70">
-        <v>-0.0002790223534906692</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.001054144488235997</v>
+      </c>
+      <c r="E70">
+        <v>-0.02304621209096472</v>
+      </c>
+      <c r="F70">
+        <v>-0.02731770089145576</v>
+      </c>
+      <c r="G70">
+        <v>0.01986783532573791</v>
+      </c>
+      <c r="H70">
+        <v>0.04677178698705219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05848714213778659</v>
+        <v>0.06022988553859707</v>
       </c>
       <c r="C71">
-        <v>0.05265434921095681</v>
+        <v>-0.06299953698892394</v>
       </c>
       <c r="D71">
-        <v>0.2947550831644134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2950169088079923</v>
+      </c>
+      <c r="E71">
+        <v>0.03126885727541785</v>
+      </c>
+      <c r="F71">
+        <v>-0.04407030881483386</v>
+      </c>
+      <c r="G71">
+        <v>0.002374613449455225</v>
+      </c>
+      <c r="H71">
+        <v>-0.01085842498876975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1390304858090272</v>
+        <v>0.1468321297743432</v>
       </c>
       <c r="C72">
-        <v>0.0652155491402988</v>
+        <v>-0.03660834301604337</v>
       </c>
       <c r="D72">
-        <v>-0.001496964927328319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009418153805807282</v>
+      </c>
+      <c r="E72">
+        <v>-0.1131266804045156</v>
+      </c>
+      <c r="F72">
+        <v>0.1575485777559542</v>
+      </c>
+      <c r="G72">
+        <v>-0.1224818890723453</v>
+      </c>
+      <c r="H72">
+        <v>-0.02477450984844875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2745778533135191</v>
+        <v>0.288327451136174</v>
       </c>
       <c r="C73">
-        <v>0.1145243713435791</v>
+        <v>-0.04687078186445865</v>
       </c>
       <c r="D73">
-        <v>-0.03959219657790097</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0995912885153961</v>
+      </c>
+      <c r="E73">
+        <v>-0.2148397315646655</v>
+      </c>
+      <c r="F73">
+        <v>-0.1197515694158913</v>
+      </c>
+      <c r="G73">
+        <v>0.1350487991863238</v>
+      </c>
+      <c r="H73">
+        <v>0.461614600026266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07971986130983655</v>
+        <v>0.09286439884838886</v>
       </c>
       <c r="C74">
-        <v>0.07686046868047594</v>
+        <v>-0.05922913830111069</v>
       </c>
       <c r="D74">
-        <v>-0.01606210738451195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02964214254839254</v>
+      </c>
+      <c r="E74">
+        <v>-0.007581568092693017</v>
+      </c>
+      <c r="F74">
+        <v>0.001212757519728803</v>
+      </c>
+      <c r="G74">
+        <v>0.06058337000961549</v>
+      </c>
+      <c r="H74">
+        <v>-0.1206021321912255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09374026102746524</v>
+        <v>0.09968718608378564</v>
       </c>
       <c r="C75">
-        <v>0.05516617334028934</v>
+        <v>-0.02981501979863705</v>
       </c>
       <c r="D75">
-        <v>-0.007258856111238099</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01465635591382325</v>
+      </c>
+      <c r="E75">
+        <v>0.008757105661099576</v>
+      </c>
+      <c r="F75">
+        <v>-0.02714935714007697</v>
+      </c>
+      <c r="G75">
+        <v>0.02671436752116764</v>
+      </c>
+      <c r="H75">
+        <v>-0.111692714282449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1295814675643285</v>
+        <v>0.1406268080210515</v>
       </c>
       <c r="C76">
-        <v>0.08387635203671134</v>
+        <v>-0.05720511885049404</v>
       </c>
       <c r="D76">
-        <v>-0.05218106727822208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04989169330577767</v>
+      </c>
+      <c r="E76">
+        <v>0.02938902474618398</v>
+      </c>
+      <c r="F76">
+        <v>-0.04633508436443509</v>
+      </c>
+      <c r="G76">
+        <v>0.02560609614491048</v>
+      </c>
+      <c r="H76">
+        <v>-0.1963034081749195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1135155684024062</v>
+        <v>0.1084132940565665</v>
       </c>
       <c r="C77">
-        <v>0.02182857958078803</v>
+        <v>0.007491035290773039</v>
       </c>
       <c r="D77">
-        <v>-0.05168988715053702</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02407192667732935</v>
+      </c>
+      <c r="E77">
+        <v>0.04333342676986018</v>
+      </c>
+      <c r="F77">
+        <v>-0.1065909277014064</v>
+      </c>
+      <c r="G77">
+        <v>-0.8938407821972549</v>
+      </c>
+      <c r="H77">
+        <v>0.0856447962880226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09930630379454715</v>
+        <v>0.1384425657608607</v>
       </c>
       <c r="C78">
-        <v>0.04043337071384411</v>
+        <v>-0.03299315407855873</v>
       </c>
       <c r="D78">
-        <v>-0.08289092563459516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08721802466640786</v>
+      </c>
+      <c r="E78">
+        <v>0.05940122910103054</v>
+      </c>
+      <c r="F78">
+        <v>-0.03390387889801141</v>
+      </c>
+      <c r="G78">
+        <v>-0.0850576377316566</v>
+      </c>
+      <c r="H78">
+        <v>0.04169880424310669</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.146391081924965</v>
+        <v>0.1522582189516584</v>
       </c>
       <c r="C79">
-        <v>0.07742930642820177</v>
+        <v>-0.04399346861491456</v>
       </c>
       <c r="D79">
-        <v>-0.02840387434739776</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02636322644014225</v>
+      </c>
+      <c r="E79">
+        <v>-0.01270414348404116</v>
+      </c>
+      <c r="F79">
+        <v>-0.0208576742227897</v>
+      </c>
+      <c r="G79">
+        <v>0.04074309274643657</v>
+      </c>
+      <c r="H79">
+        <v>-0.1722142185538279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04561321504024258</v>
+        <v>0.04293388075152021</v>
       </c>
       <c r="C80">
-        <v>0.01510147098005327</v>
+        <v>-0.005262249660227903</v>
       </c>
       <c r="D80">
-        <v>-0.02886220968623466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01930772260381489</v>
+      </c>
+      <c r="E80">
+        <v>-0.00804703421797924</v>
+      </c>
+      <c r="F80">
+        <v>0.005589693151774724</v>
+      </c>
+      <c r="G80">
+        <v>0.03598835294732625</v>
+      </c>
+      <c r="H80">
+        <v>-0.03498598123760056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1141674544684464</v>
+        <v>0.1204586592279665</v>
       </c>
       <c r="C81">
-        <v>0.06498523730897496</v>
+        <v>-0.03832825796667919</v>
       </c>
       <c r="D81">
-        <v>-0.03070237100272491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02294590823121477</v>
+      </c>
+      <c r="E81">
+        <v>0.02456863742814693</v>
+      </c>
+      <c r="F81">
+        <v>-0.01372851214656637</v>
+      </c>
+      <c r="G81">
+        <v>0.0659556886995705</v>
+      </c>
+      <c r="H81">
+        <v>-0.148814112748133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1300348936679699</v>
+        <v>0.131814993442649</v>
       </c>
       <c r="C82">
-        <v>0.079965151753143</v>
+        <v>-0.05117918587110952</v>
       </c>
       <c r="D82">
-        <v>-0.01651942177515102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0261566399794285</v>
+      </c>
+      <c r="E82">
+        <v>-0.01327839845119326</v>
+      </c>
+      <c r="F82">
+        <v>-0.06027942398979769</v>
+      </c>
+      <c r="G82">
+        <v>0.05744348545235849</v>
+      </c>
+      <c r="H82">
+        <v>-0.2018481401939308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07922599634372117</v>
+        <v>0.08850821765006466</v>
       </c>
       <c r="C83">
-        <v>-0.005651687146806809</v>
+        <v>0.02171787915258559</v>
       </c>
       <c r="D83">
-        <v>-0.02485532667834882</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03358550849285135</v>
+      </c>
+      <c r="E83">
+        <v>0.0265172536112656</v>
+      </c>
+      <c r="F83">
+        <v>-0.05477026792655899</v>
+      </c>
+      <c r="G83">
+        <v>0.07213621991591836</v>
+      </c>
+      <c r="H83">
+        <v>0.07723740095084101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02749414512931107</v>
+        <v>0.03709138732612128</v>
       </c>
       <c r="C84">
-        <v>0.02603324018502096</v>
+        <v>-0.02106462505842847</v>
       </c>
       <c r="D84">
-        <v>-0.03373304314188112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02976777869029306</v>
+      </c>
+      <c r="E84">
+        <v>0.01852320485504366</v>
+      </c>
+      <c r="F84">
+        <v>0.05348746312646955</v>
+      </c>
+      <c r="G84">
+        <v>0.05969664436299332</v>
+      </c>
+      <c r="H84">
+        <v>-0.0003648840076964816</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1195581894257658</v>
+        <v>0.1201917844915328</v>
       </c>
       <c r="C85">
-        <v>0.05827126297242558</v>
+        <v>-0.02860162152642449</v>
       </c>
       <c r="D85">
-        <v>-0.01907031712116168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02347919485692796</v>
+      </c>
+      <c r="E85">
+        <v>0.02570027038205515</v>
+      </c>
+      <c r="F85">
+        <v>-0.0413588171802943</v>
+      </c>
+      <c r="G85">
+        <v>0.03442936316407808</v>
+      </c>
+      <c r="H85">
+        <v>-0.151802228912256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04951114731902185</v>
+        <v>0.05810059530819557</v>
       </c>
       <c r="C86">
-        <v>0.03005142942711779</v>
+        <v>-0.01963720624328026</v>
       </c>
       <c r="D86">
-        <v>-0.02243573054446949</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02425981412045939</v>
+      </c>
+      <c r="E86">
+        <v>0.06455164146922346</v>
+      </c>
+      <c r="F86">
+        <v>-0.02314793072194965</v>
+      </c>
+      <c r="G86">
+        <v>0.02469035860766978</v>
+      </c>
+      <c r="H86">
+        <v>0.006812302640891814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1219213135879439</v>
+        <v>0.1220197039486097</v>
       </c>
       <c r="C87">
-        <v>0.07235181168415285</v>
+        <v>-0.03652450677869161</v>
       </c>
       <c r="D87">
-        <v>-0.07673858893248584</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07658468783056721</v>
+      </c>
+      <c r="E87">
+        <v>0.02418949454835459</v>
+      </c>
+      <c r="F87">
+        <v>0.00756635782784747</v>
+      </c>
+      <c r="G87">
+        <v>-0.1284477490927054</v>
+      </c>
+      <c r="H87">
+        <v>0.03142528997540557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05285692977211807</v>
+        <v>0.06035228968708532</v>
       </c>
       <c r="C88">
-        <v>0.02948328059367191</v>
+        <v>-0.01874458978894533</v>
       </c>
       <c r="D88">
-        <v>-0.01802072556145025</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03026921722004577</v>
+      </c>
+      <c r="E88">
+        <v>0.01996305850295282</v>
+      </c>
+      <c r="F88">
+        <v>-0.006127780847173299</v>
+      </c>
+      <c r="G88">
+        <v>-0.00506196500894928</v>
+      </c>
+      <c r="H88">
+        <v>-0.0513772901896651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08160072076474663</v>
+        <v>0.09309523937770536</v>
       </c>
       <c r="C89">
-        <v>0.07005382826593672</v>
+        <v>-0.08135885564080292</v>
       </c>
       <c r="D89">
-        <v>0.3255153446411334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3463275169079597</v>
+      </c>
+      <c r="E89">
+        <v>0.06952118750300687</v>
+      </c>
+      <c r="F89">
+        <v>-0.0832120156834239</v>
+      </c>
+      <c r="G89">
+        <v>0.02333427919989977</v>
+      </c>
+      <c r="H89">
+        <v>-0.01460734971033769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07361934599791763</v>
+        <v>0.07913169292405317</v>
       </c>
       <c r="C90">
-        <v>0.06327685157693071</v>
+        <v>-0.07062444728190444</v>
       </c>
       <c r="D90">
-        <v>0.3243318585707619</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3092829388282276</v>
+      </c>
+      <c r="E90">
+        <v>0.06062724579278585</v>
+      </c>
+      <c r="F90">
+        <v>-0.001602087088710131</v>
+      </c>
+      <c r="G90">
+        <v>0.002368082932697072</v>
+      </c>
+      <c r="H90">
+        <v>-0.005403260312887903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08490409129088249</v>
+        <v>0.08932832950950755</v>
       </c>
       <c r="C91">
-        <v>0.05601383877627648</v>
+        <v>-0.03385467313633284</v>
       </c>
       <c r="D91">
-        <v>-0.03337737129728787</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03161928738857155</v>
+      </c>
+      <c r="E91">
+        <v>0.01515449876210286</v>
+      </c>
+      <c r="F91">
+        <v>-0.005674965096924244</v>
+      </c>
+      <c r="G91">
+        <v>0.05549618764892883</v>
+      </c>
+      <c r="H91">
+        <v>-0.07481796438217965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07422775400016285</v>
+        <v>0.07901264060187836</v>
       </c>
       <c r="C92">
-        <v>0.07397307893845391</v>
+        <v>-0.08273185883635154</v>
       </c>
       <c r="D92">
-        <v>0.3435065430433921</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3435648971226797</v>
+      </c>
+      <c r="E92">
+        <v>0.04488847479867264</v>
+      </c>
+      <c r="F92">
+        <v>-0.03920927236314079</v>
+      </c>
+      <c r="G92">
+        <v>-0.01162319397218019</v>
+      </c>
+      <c r="H92">
+        <v>-0.01631594787750303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06539495655368917</v>
+        <v>0.07673731115804948</v>
       </c>
       <c r="C93">
-        <v>0.06720512747810127</v>
+        <v>-0.08089213016139014</v>
       </c>
       <c r="D93">
-        <v>0.3160030015635892</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3054629730905526</v>
+      </c>
+      <c r="E93">
+        <v>0.03630250796151761</v>
+      </c>
+      <c r="F93">
+        <v>-0.03967400709108385</v>
+      </c>
+      <c r="G93">
+        <v>-0.01813918724063629</v>
+      </c>
+      <c r="H93">
+        <v>0.009679204003786055</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1321867081274642</v>
+        <v>0.1268918517704815</v>
       </c>
       <c r="C94">
-        <v>0.05785465752628845</v>
+        <v>-0.02227717543401304</v>
       </c>
       <c r="D94">
-        <v>-0.04235365485858549</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04808787825632398</v>
+      </c>
+      <c r="E94">
+        <v>-0.001864744130777582</v>
+      </c>
+      <c r="F94">
+        <v>-0.02120725771616665</v>
+      </c>
+      <c r="G94">
+        <v>0.06441017859918703</v>
+      </c>
+      <c r="H94">
+        <v>-0.097948013956216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1193154657933253</v>
+        <v>0.1265936521840463</v>
       </c>
       <c r="C95">
-        <v>0.03366210311614171</v>
+        <v>-0.004910192075947389</v>
       </c>
       <c r="D95">
-        <v>-0.0554326743346539</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06699947983005609</v>
+      </c>
+      <c r="E95">
+        <v>0.01697641043529806</v>
+      </c>
+      <c r="F95">
+        <v>-0.04613246042245739</v>
+      </c>
+      <c r="G95">
+        <v>-0.02804850420451237</v>
+      </c>
+      <c r="H95">
+        <v>0.08601978739803902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2057468369967457</v>
+        <v>0.210014193594882</v>
       </c>
       <c r="C97">
-        <v>0.04280984605750177</v>
+        <v>-0.001079981865124561</v>
       </c>
       <c r="D97">
-        <v>0.07098437528019731</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.092196961185928</v>
+      </c>
+      <c r="E97">
+        <v>-0.316027871923545</v>
+      </c>
+      <c r="F97">
+        <v>0.8671801939793247</v>
+      </c>
+      <c r="G97">
+        <v>-0.07134018764678479</v>
+      </c>
+      <c r="H97">
+        <v>-0.01351183025847156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2443830389638324</v>
+        <v>0.2745748901584971</v>
       </c>
       <c r="C98">
-        <v>0.07631386928442838</v>
+        <v>-0.03358837115510363</v>
       </c>
       <c r="D98">
-        <v>-0.04804592555497442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05952637931897767</v>
+      </c>
+      <c r="E98">
+        <v>-0.1706678950078887</v>
+      </c>
+      <c r="F98">
+        <v>-0.09111401299540182</v>
+      </c>
+      <c r="G98">
+        <v>0.2269711865795885</v>
+      </c>
+      <c r="H98">
+        <v>0.2858657774746527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4562511351607659</v>
+        <v>0.2847581351620491</v>
       </c>
       <c r="C99">
-        <v>-0.8734982960483214</v>
+        <v>0.9339321615873549</v>
       </c>
       <c r="D99">
-        <v>0.05746653721106437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1349909347590881</v>
+      </c>
+      <c r="E99">
+        <v>0.06699432842638184</v>
+      </c>
+      <c r="F99">
+        <v>-0.04826816127530065</v>
+      </c>
+      <c r="G99">
+        <v>0.02295529450075935</v>
+      </c>
+      <c r="H99">
+        <v>-0.06786054217243458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0398654983047557</v>
+        <v>0.04830865803724872</v>
       </c>
       <c r="C101">
-        <v>0.03157694463539365</v>
+        <v>-0.02643699068856723</v>
       </c>
       <c r="D101">
-        <v>-0.00209930409081387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006217479354779264</v>
+      </c>
+      <c r="E101">
+        <v>0.05430101608776935</v>
+      </c>
+      <c r="F101">
+        <v>0.001624038646152862</v>
+      </c>
+      <c r="G101">
+        <v>0.01275304797880654</v>
+      </c>
+      <c r="H101">
+        <v>-0.07730458973336279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
